--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1369434.919707251</v>
+        <v>1398043.667994522</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484449</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6697940.296520092</v>
+        <v>6797832.710874228</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>335.0452643929979</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.5716643333118</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>52.26638665539729</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>161.483759038457</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>313.449814690419</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>212.4500751599281</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1057,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>34.06158462965291</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>96.33500870204648</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>308.3086748172354</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1142,7 +1142,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>337.4437351164529</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>165.7499153537875</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1528,13 +1528,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>31.24391673888162</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>7.264602967362117</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>33.08339867820064</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1771,7 +1771,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>144.4101211402587</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>172.6623007436909</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1853,7 +1853,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>245.1936256801017</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225824</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2612,7 +2612,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655128</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>172.6623007436915</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3424,7 +3424,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3436,13 +3436,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>56.67612639678247</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225818</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3560,7 +3560,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3664,10 +3664,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>102.8562685532405</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>211.4785282929871</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3898,7 +3898,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>67.84972440587259</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3910,13 +3910,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480023865</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4034,7 +4034,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>174.2076243880233</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>18.05677735225763</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>847.0638324846691</v>
       </c>
       <c r="C2" t="n">
-        <v>1226.179759784392</v>
+        <v>812.9617637084964</v>
       </c>
       <c r="D2" t="n">
-        <v>797.5980855216599</v>
+        <v>781.092382923345</v>
       </c>
       <c r="E2" t="n">
-        <v>459.1685255287327</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,10 +4331,10 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
         <v>874.0494664914149</v>
@@ -4367,13 +4367,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>873.5687185891154</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>869.3229989291729</v>
       </c>
     </row>
     <row r="3">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>707.7326516402958</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="C4" t="n">
-        <v>535.1709401235207</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D4" t="n">
-        <v>369.2929473250434</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4486,52 +4486,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1644.389100125471</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1372.362695711762</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="X4" t="n">
-        <v>1126.970941045175</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="Y4" t="n">
-        <v>899.5512703592829</v>
+        <v>542.1413766661235</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>956.3642220164563</v>
+        <v>1786.126818664106</v>
       </c>
       <c r="C5" t="n">
-        <v>922.2621532402836</v>
+        <v>1347.98434584753</v>
       </c>
       <c r="D5" t="n">
-        <v>890.3927724551322</v>
+        <v>912.0745610219743</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>478.2998161802695</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947723</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947723</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947723</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1109.787858087176</v>
       </c>
       <c r="L5" t="n">
-        <v>1107.976466382457</v>
+        <v>1109.787858087176</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>1109.787858087176</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>1109.787858087176</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1733.888642131956</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2352.465264720804</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720804</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473861</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473861</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.5521023469</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2042.329799663917</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2042.329799663917</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1827.733764148838</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1812.631704768553</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1808.38598510861</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807701</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639656</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909193</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070809</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326475</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947723</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993484</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760928</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813124</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605332</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>376.2633838676462</v>
+        <v>593.0357356940458</v>
       </c>
       <c r="C7" t="n">
-        <v>203.7016723508711</v>
+        <v>420.4740241772707</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7016723508711</v>
+        <v>254.5960313787934</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>84.83802762953067</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947723</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947723</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947723</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947723</v>
       </c>
       <c r="J7" t="n">
-        <v>68.8461756808652</v>
+        <v>50.43238658947723</v>
       </c>
       <c r="K7" t="n">
-        <v>343.6046302520008</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>761.8145120199619</v>
+        <v>743.4007229285739</v>
       </c>
       <c r="M7" t="n">
-        <v>761.8145120199619</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473861</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179233</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.96013947723</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055685</v>
       </c>
       <c r="U7" t="n">
-        <v>1599.875340482391</v>
+        <v>1816.64769230879</v>
       </c>
       <c r="V7" t="n">
-        <v>1312.919832352821</v>
+        <v>1529.692184179221</v>
       </c>
       <c r="W7" t="n">
-        <v>1040.893427939113</v>
+        <v>1257.665779765512</v>
       </c>
       <c r="X7" t="n">
-        <v>795.5016732725251</v>
+        <v>1012.274025098925</v>
       </c>
       <c r="Y7" t="n">
-        <v>568.0820025866333</v>
+        <v>784.854354413033</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>489.9592645846402</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>423.9878150233161</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>394.2534742220153</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8993883704147</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1024.341879988165</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1233.544589050298</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1653.597487995201</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1688.971924059632</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1443.580169393044</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1216.160498707152</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168565</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397513</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940403</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510709</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344105</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.6447693027</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055757</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239594</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112632</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429649</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363475</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774509</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.24256235382</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653473</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.9077216724079</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090502</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>96.73597668111513</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>96.73597668111513</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>96.73597668111513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>96.73597668111513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>562.8680267311244</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1759.975738159924</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1759.975738159924</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1759.975738159924</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1759.975738159924</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729503</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.211622752171</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.2298140987275</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7923094427941</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935314</v>
+        <v>451.897152078511</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>275.1900980402672</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111513</v>
+        <v>109.5988230660949</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583902</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170194</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503606</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177147</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111513</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510709</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344105</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.6447693027</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055757</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055757</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.381259633332</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.158956950349</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.542006884175</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874519</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.9077216724079</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090502</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415727</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729503</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.211622752171</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>1068.769857140658</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776221</v>
+        <v>896.2081456238831</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777442</v>
+        <v>730.3301528254058</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284814</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902376</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064398</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289286</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2112.450585778171</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V16" t="n">
-        <v>2112.450585778171</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W16" t="n">
-        <v>1840.424181364463</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.032426697876</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.612756011984</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181388</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.882982364812</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1470.973197539256</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1037.198452697551</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277514</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510153</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423159</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.5833484213716</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742895</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P17" t="n">
-        <v>4251.73783548903</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315524</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.16742106858</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252417</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.448320125455</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442472</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376298</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787332</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366643</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.325025666296</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126643</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493066</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958599</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228136</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389752</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051591</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.5833484213716</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818292</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480415</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.650331805841</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741133</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474327</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132067</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924275</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.0793854983028</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>776.5176739815279</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>610.6396811830505</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>440.8816774337878</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>264.1746233955439</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>98.5833484213716</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>98.5833484213716</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.5833484213716</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860615</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571969</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.131369925158</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.615237106071</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263716</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.003789281487</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.124342859942</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2172.691342113048</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1885.735833983478</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.70942956977</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.317674903182</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1140.89800421729</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,28 +5753,28 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3800.474012941002</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5832,19 +5832,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5887,13 +5887,13 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
         <v>267.852115244952</v>
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
         <v>1654.847790009657</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,43 +5996,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324585</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6212,52 +6212,52 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
         <v>4187.483659846699</v>
@@ -6300,31 +6300,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6418,7 +6418,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
         <v>1617.386921419177</v>
@@ -6543,22 +6543,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674088</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.121292818146</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954128</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601649</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477103</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130894</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.801834709349</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.995166752589</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066697</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,46 +6935,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
@@ -6993,16 +6993,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G36" t="n">
         <v>143.9964924545671</v>
@@ -7017,19 +7017,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>645.8766848899141</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>476.1186811406514</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>299.4116271024076</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>299.4116271024076</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>159.5094527927821</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,10 +7160,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,28 +7172,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7208,16 +7208,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477115</v>
+        <v>949.57822509577</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309365</v>
+        <v>777.0165135789949</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324589</v>
+        <v>777.0165135789949</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7333,49 +7333,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457409</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962456</v>
+        <v>2173.190181710514</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580945</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419178</v>
+        <v>1614.208269167236</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500649</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066699</v>
+        <v>1141.396843814757</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.635886538672</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722096</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.58362889654</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054835</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>790.941454464043</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>389.543623087307</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305232</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834411</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.018447941619</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>3570.809397630926</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>4550.989064201232</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>5020.67342652616</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.67342652616</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.67342652616</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.67342652616</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.058751482739</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4547.836448799756</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.219498733582</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.364044144615</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.221580723926</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2952.935457023581</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218159</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584583</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050115</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319652</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481268</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143107</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909808</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571931</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914992</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009332</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457715</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788285</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850284</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583478</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223583</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015791</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.4894846535082</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C43" t="n">
-        <v>615.9277731367333</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>450.0497803382559</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>280.2917765889931</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>103.5847225507493</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>100.4134685305232</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305232</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305232</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952131</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663487</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343099</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138696</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2536.413888436692</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2290.534442015147</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2012.101441268253</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1725.145933138683</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W43" t="n">
-        <v>1453.119528724974</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X43" t="n">
-        <v>1207.727774058387</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y43" t="n">
-        <v>980.3081033724951</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4836.798834055759</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4616.731606928797</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4357.509304245814</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.542006884174</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3776.686552295208</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.544088874519</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1128.091494878162</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>1128.091494878162</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.091494878162</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.091494878162</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>1128.091494878162</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
-        <v>1128.091494878162</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>965.471182800731</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>792.9094712839559</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>627.0314784854786</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>457.2734747362158</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>280.566420697972</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>114.9751457237996</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2713.395586583915</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2467.51614016237</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2189.083139415475</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1902.127631285906</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1630.101226872197</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1384.70947220561</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1157.289801519718</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7979,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684653</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684653</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>624.8248713018668</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684653</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741708</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,10 +8380,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238452</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>469.682203560008</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,19 +8617,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>44.02620412648071</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294867</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,22 +8763,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>470.840454595969</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1209.199708513939</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O14" t="n">
-        <v>860.0355415814533</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>513.4096169964596</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9401,22 +9401,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>602.9445958447754</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9480,22 +9480,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,22 +9717,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,22 +10665,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,22 +10902,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11066,22 +11066,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>474.4286488130583</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11139,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807186</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>268.0111327346235</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>131.2385495991671</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>184.7831561774911</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>23.65030257151139</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>102.9863699957348</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>178.3951296147826</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.592177662725</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>102.9863699957342</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>31.09722333628894</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627251</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>65.20415515852957</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.388026562704592</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>102.9863699957347</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444067</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>184.7831561774884</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>120.4463752142716</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>559536.5164652553</v>
+        <v>572218.8388885307</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>559536.5164652553</v>
+        <v>574502.3189344561</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>570254.0126392617</v>
+        <v>594319.3836121787</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>570254.0126392617</v>
+        <v>594319.3836121787</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>578300.8513589223</v>
+        <v>594319.3836121787</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>594319.3836121787</v>
+        <v>594319.3836121786</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>586272.5448925184</v>
+        <v>594319.3836121787</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>570254.0126392619</v>
+        <v>594319.3836121787</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26314,19 @@
         <v>415514.1729150667</v>
       </c>
       <c r="C2" t="n">
-        <v>415514.1729150665</v>
+        <v>415514.1729150666</v>
       </c>
       <c r="D2" t="n">
         <v>415514.1729150667</v>
       </c>
       <c r="E2" t="n">
-        <v>391781.0209280491</v>
+        <v>408314.627706448</v>
       </c>
       <c r="F2" t="n">
-        <v>391781.0209280491</v>
+        <v>408314.627706448</v>
       </c>
       <c r="G2" t="n">
-        <v>397309.4321605121</v>
+        <v>408314.627706448</v>
       </c>
       <c r="H2" t="n">
         <v>408314.627706448</v>
@@ -26350,10 +26350,10 @@
         <v>408314.627706448</v>
       </c>
       <c r="O2" t="n">
-        <v>402786.2164739852</v>
+        <v>408314.627706448</v>
       </c>
       <c r="P2" t="n">
-        <v>391781.0209280492</v>
+        <v>408314.627706448</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501673</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998222</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220372</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042852287</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996165</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877297</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726621869</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830676</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171472.7657924759</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418667</v>
+        <v>165263.0882595585</v>
       </c>
       <c r="E4" t="n">
-        <v>78141.89423804608</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="F4" t="n">
-        <v>78141.89423804608</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="G4" t="n">
-        <v>79244.55236275113</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.5714690428</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
         <v>81439.57146904284</v>
       </c>
       <c r="O4" t="n">
-        <v>80336.91334433782</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="P4" t="n">
-        <v>78141.89423804608</v>
+        <v>81439.57146904283</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800269</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764751</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764751</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024241</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319763</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>7937.111276267628</v>
       </c>
       <c r="C6" t="n">
-        <v>150128.4119359775</v>
+        <v>105497.4254195713</v>
       </c>
       <c r="D6" t="n">
-        <v>150128.4119359776</v>
+        <v>164510.9645437683</v>
       </c>
       <c r="E6" t="n">
-        <v>5764.762390318283</v>
+        <v>66778.4840711802</v>
       </c>
       <c r="F6" t="n">
-        <v>240119.7844123555</v>
+        <v>249133.5932922302</v>
       </c>
       <c r="G6" t="n">
-        <v>236812.3239546662</v>
+        <v>249133.59329223</v>
       </c>
       <c r="H6" t="n">
-        <v>236754.062651651</v>
+        <v>249133.59329223</v>
       </c>
       <c r="I6" t="n">
-        <v>249156.8176316126</v>
+        <v>249133.59329223</v>
       </c>
       <c r="J6" t="n">
-        <v>138142.3522866225</v>
+        <v>138119.1279472398</v>
       </c>
       <c r="K6" t="n">
-        <v>249156.8176316126</v>
+        <v>196087.738653457</v>
       </c>
       <c r="L6" t="n">
-        <v>249156.8176316126</v>
+        <v>239741.2915656081</v>
       </c>
       <c r="M6" t="n">
-        <v>53555.63834854506</v>
+        <v>96933.42235424247</v>
       </c>
       <c r="N6" t="n">
-        <v>249156.8176316126</v>
+        <v>249133.59329223</v>
       </c>
       <c r="O6" t="n">
-        <v>246135.0670464498</v>
+        <v>249133.59329223</v>
       </c>
       <c r="P6" t="n">
-        <v>240119.7844123556</v>
+        <v>249133.59329223</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684653</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267145</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.16835663154</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.108974848361</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939163</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938348</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675320534</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.9686481176004</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.108974848361</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939163</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938348</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.108974848361</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939163</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938348</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675320534</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.9686481176004</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,25 +27379,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>94.39173300028989</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0.3793744531705556</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>231.8195663928765</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>107.8223813311143</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>108.5867600896397</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>188.3568248831489</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>140.8783988682084</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>179.3136620373792</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27862,7 +27862,7 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>86.14502017843142</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -34699,13 +34699,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684653</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684653</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>624.8248713018668</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35012,13 +35012,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684653</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741708</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,10 +35033,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238452</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>469.682203560008</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,19 +35337,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>44.02620412648071</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294867</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,22 +35483,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>470.840454595969</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1209.199708513939</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,10 +35507,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,13 +35580,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.908332551295</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,10 +35656,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O14" t="n">
-        <v>860.0355415814533</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35817,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473919</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>513.4096169964596</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697531</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960964</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36121,22 +36121,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>602.9445958447754</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36200,22 +36200,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,22 +36437,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36522,13 +36522,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,10 +36926,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37701,19 +37701,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645618</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>474.4286488130583</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908073</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38017,13 +38017,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807186</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,10 +38111,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38181,13 +38181,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
